--- a/data/trans_orig/Q5410-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7ADBDFE-A3EE-46A5-A0D4-40C935F898C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F0FEF1E-B998-445F-B422-C66177CDC876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86E85406-B3CD-4B08-8202-6B0D50C2B3B1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5CEF190-6250-428B-B903-FA648305B0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="459">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -125,1312 +125,1297 @@
     <t>1,1%</t>
   </si>
   <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>98,5%</t>
+    <t>96,73%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4606818F-AB62-4485-9974-683136D501EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EB1BF7-66FE-4326-A9FD-E1B8AD0418A5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2301,7 +2286,7 @@
         <v>212</v>
       </c>
       <c r="N10" s="7">
-        <v>208879</v>
+        <v>208880</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>41</v>
@@ -2352,7 +2337,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>20</v>
@@ -3002,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3011,10 +2996,10 @@
         <v>6754</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>114</v>
@@ -3050,10 +3035,10 @@
         <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3062,13 +3047,13 @@
         <v>17685</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -3077,13 +3062,13 @@
         <v>24788</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3083,13 @@
         <v>494524</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>639</v>
@@ -3113,13 +3098,13 @@
         <v>652403</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>1153</v>
@@ -3128,13 +3113,13 @@
         <v>1146927</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,7 +3175,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +3196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A7A4B2-7F36-42C2-B13B-A26A03FBD76D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AE72F8-B84D-41FA-B4DE-7FC56223762E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3228,7 +3213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3350,13 +3335,13 @@
         <v>1015</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3365,13 +3350,13 @@
         <v>1015</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3401,13 +3386,13 @@
         <v>2303</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3416,13 +3401,13 @@
         <v>2303</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,7 +3425,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -3452,13 +3437,13 @@
         <v>21875</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -3467,13 +3452,13 @@
         <v>43073</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3541,13 @@
         <v>2123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3571,13 +3556,13 @@
         <v>4248</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3577,13 @@
         <v>1090</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3607,13 +3592,13 @@
         <v>2108</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3622,10 +3607,10 @@
         <v>3199</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>164</v>
@@ -3750,10 +3735,10 @@
         <v>174</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -3762,13 +3747,13 @@
         <v>5554</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -3777,13 +3762,13 @@
         <v>8582</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3783,13 @@
         <v>5670</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>118</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3813,13 +3798,13 @@
         <v>7676</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -3828,10 +3813,10 @@
         <v>13346</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>189</v>
@@ -3870,7 +3855,7 @@
         <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -3879,13 +3864,13 @@
         <v>324370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3938,13 @@
         <v>1062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3968,13 +3953,13 @@
         <v>5466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3983,13 +3968,13 @@
         <v>6528</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3989,13 @@
         <v>4379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4019,13 +4004,13 @@
         <v>3207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4034,13 +4019,13 @@
         <v>7586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4040,13 @@
         <v>98158</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H18" s="7">
         <v>122</v>
@@ -4070,13 +4055,13 @@
         <v>132345</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -4085,13 +4070,13 @@
         <v>230503</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,7 +4150,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -4174,13 +4159,13 @@
         <v>6408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -4189,13 +4174,13 @@
         <v>7365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4195,13 @@
         <v>6247</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -4225,13 +4210,13 @@
         <v>5063</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -4240,13 +4225,13 @@
         <v>11310</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4246,13 @@
         <v>154409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -4276,13 +4261,13 @@
         <v>232279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>361</v>
@@ -4291,13 +4276,13 @@
         <v>386688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,7 +4350,7 @@
         <v>7172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>243</v>
@@ -4416,13 +4401,13 @@
         <v>17386</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4431,13 +4416,13 @@
         <v>20358</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -4446,7 +4431,7 @@
         <v>37744</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>255</v>
@@ -4482,13 +4467,13 @@
         <v>702050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>1140</v>
@@ -4497,13 +4482,13 @@
         <v>1237129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,7 +4544,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4580,7 +4565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6A3637-0F4A-4510-B451-FD6DCB72CE5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE00945-56B7-43ED-89DE-C031A36D32B0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4597,7 +4582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4710,7 +4695,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4725,7 +4710,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4740,7 +4725,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4776,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4791,7 +4776,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4794,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -4839,7 +4824,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -4910,13 +4895,13 @@
         <v>1844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4931,7 +4916,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4940,13 +4925,13 @@
         <v>4164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4946,13 @@
         <v>4181</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4976,13 +4961,13 @@
         <v>4339</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -4991,13 +4976,13 @@
         <v>8520</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +4997,13 @@
         <v>109021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -5027,13 +5012,13 @@
         <v>143293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>246</v>
@@ -5042,13 +5027,13 @@
         <v>252313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5101,13 @@
         <v>3624</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5131,13 +5116,13 @@
         <v>3270</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5146,13 +5131,13 @@
         <v>6894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5152,13 @@
         <v>2488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5182,13 +5167,13 @@
         <v>2354</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5197,13 +5182,13 @@
         <v>4842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5203,13 @@
         <v>158829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -5233,13 +5218,13 @@
         <v>213539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>346</v>
@@ -5248,13 +5233,13 @@
         <v>372368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5337,13 +5322,13 @@
         <v>2618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5352,13 +5337,13 @@
         <v>2618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5358,13 @@
         <v>3512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5388,13 +5373,13 @@
         <v>2309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5403,13 +5388,13 @@
         <v>5821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5409,13 @@
         <v>111523</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H18" s="7">
         <v>114</v>
@@ -5439,13 +5424,13 @@
         <v>137669</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M18" s="7">
         <v>224</v>
@@ -5454,13 +5439,13 @@
         <v>249192</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,7 +5519,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5543,13 +5528,13 @@
         <v>1233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5558,13 +5543,13 @@
         <v>1233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,7 +5570,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5594,13 +5579,13 @@
         <v>5108</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>332</v>
+        <v>175</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5612,10 +5597,10 @@
         <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,10 +5615,10 @@
         <v>172600</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>18</v>
@@ -5645,13 +5630,13 @@
         <v>236440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>337</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M22" s="7">
         <v>381</v>
@@ -5660,13 +5645,13 @@
         <v>409041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5719,13 @@
         <v>5468</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5749,13 +5734,13 @@
         <v>9441</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -5764,13 +5749,13 @@
         <v>14909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5770,13 @@
         <v>12200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5800,13 +5785,13 @@
         <v>14109</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -5818,10 +5803,10 @@
         <v>50</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5827,7 @@
         <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>59</v>
       </c>
       <c r="H26" s="7">
         <v>636</v>
@@ -5851,13 +5836,13 @@
         <v>754381</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>1243</v>
@@ -5866,13 +5851,13 @@
         <v>1328041</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,7 +5913,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5949,7 +5934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E46859-AA0F-4AF0-A9E4-5B8CEF108CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A1B3D-24F1-45A2-88C3-F989DF646843}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5966,7 +5951,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6073,13 +6058,13 @@
         <v>456</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6109,7 +6094,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6124,13 @@
         <v>2759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>366</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>367</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6154,13 +6139,13 @@
         <v>2759</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,10 +6160,10 @@
         <v>29208</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>18</v>
@@ -6190,13 +6175,13 @@
         <v>42123</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M6" s="7">
         <v>151</v>
@@ -6205,13 +6190,13 @@
         <v>71330</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6264,13 @@
         <v>721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -6294,13 +6279,13 @@
         <v>1760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6309,10 +6294,10 @@
         <v>2481</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>380</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>25</v>
@@ -6330,13 +6315,13 @@
         <v>2188</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -6345,13 +6330,13 @@
         <v>5479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>342</v>
+        <v>174</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -6360,13 +6345,13 @@
         <v>7667</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>383</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6366,13 @@
         <v>122068</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>386</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -6396,13 +6381,13 @@
         <v>139980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>519</v>
@@ -6417,7 +6402,7 @@
         <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6470,13 @@
         <v>1180</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>393</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -6503,10 +6488,10 @@
         <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>98</v>
+        <v>394</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -6515,13 +6500,13 @@
         <v>5329</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6521,13 @@
         <v>3422</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -6551,13 +6536,13 @@
         <v>10342</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -6569,10 +6554,10 @@
         <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6572,13 @@
         <v>169245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>422</v>
@@ -6602,13 +6587,13 @@
         <v>228404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -6617,13 +6602,13 @@
         <v>397649</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,7 +6682,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6706,13 +6691,13 @@
         <v>2067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6721,13 +6706,13 @@
         <v>2067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6727,13 @@
         <v>3892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -6757,13 +6742,13 @@
         <v>7216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -6772,13 +6757,13 @@
         <v>11108</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6778,13 @@
         <v>144298</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>192</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -6808,13 +6793,13 @@
         <v>271831</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M18" s="7">
         <v>463</v>
@@ -6823,13 +6808,13 @@
         <v>416130</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6882,13 @@
         <v>544</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -6912,13 +6897,13 @@
         <v>6686</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -6927,13 +6912,13 @@
         <v>7230</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6933,13 @@
         <v>3496</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -6963,13 +6948,13 @@
         <v>10421</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -6978,13 +6963,13 @@
         <v>13917</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>436</v>
+        <v>185</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>437</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +6984,13 @@
         <v>215511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>434</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H22" s="7">
         <v>501</v>
@@ -7014,13 +6999,13 @@
         <v>292446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M22" s="7">
         <v>821</v>
@@ -7029,13 +7014,13 @@
         <v>507957</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7088,13 @@
         <v>2902</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>446</v>
+        <v>111</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>447</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -7118,13 +7103,13 @@
         <v>14662</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>445</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -7133,13 +7118,13 @@
         <v>17564</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,10 +7142,10 @@
         <v>25</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -7169,13 +7154,13 @@
         <v>36217</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -7184,13 +7169,13 @@
         <v>49215</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7190,13 @@
         <v>680328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>108</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>1622</v>
@@ -7220,13 +7205,13 @@
         <v>974785</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>2623</v>
@@ -7235,13 +7220,13 @@
         <v>1655114</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>62</v>
+        <v>457</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,7 +7282,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F0FEF1E-B998-445F-B422-C66177CDC876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3655D39A-3F03-4EDF-AE2D-2BA32009BF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5CEF190-6250-428B-B903-FA648305B0C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0DAB56CD-C7FF-4217-B15F-058940533A68}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="455">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>A menudo</t>
@@ -110,7 +110,7 @@
     <t>96,46%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,02%</t>
@@ -119,22 +119,22 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -143,1273 +143,1261 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>97,06%</t>
   </si>
   <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>93,42%</t>
+    <t>93,52%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>95,17%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>97,25%</t>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
   </si>
   <si>
     <t>95,25%</t>
@@ -1827,7 +1815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EB1BF7-66FE-4326-A9FD-E1B8AD0418A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC758F1C-9153-4D94-8816-DA8FA8F215BB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2241,10 +2229,10 @@
         <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2247,13 @@
         <v>86011</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -2274,10 +2262,10 @@
         <v>122868</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>18</v>
@@ -2286,16 +2274,16 @@
         <v>212</v>
       </c>
       <c r="N10" s="7">
-        <v>208880</v>
+        <v>208879</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,7 +2325,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>20</v>
@@ -2351,7 +2339,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2369,7 +2357,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2378,13 +2366,13 @@
         <v>1224</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2393,13 +2381,13 @@
         <v>1224</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2402,13 @@
         <v>2795</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2429,13 +2417,13 @@
         <v>7581</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2444,13 +2432,13 @@
         <v>10376</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2453,13 @@
         <v>143094</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -2480,13 +2468,13 @@
         <v>173875</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>305</v>
@@ -2495,13 +2483,13 @@
         <v>316968</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,7 +2545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2575,7 +2563,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2590,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2605,7 +2593,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2608,13 @@
         <v>896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2635,13 +2623,13 @@
         <v>3220</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2650,13 +2638,13 @@
         <v>4116</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,10 +2659,10 @@
         <v>103475</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -2686,13 +2674,13 @@
         <v>132630</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>238</v>
@@ -2701,13 +2689,13 @@
         <v>236105</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,7 +2751,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2775,13 +2763,13 @@
         <v>838</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2790,13 +2778,13 @@
         <v>3188</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2805,13 +2793,13 @@
         <v>4026</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,7 +2814,7 @@
         <v>810</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
@@ -2844,10 +2832,10 @@
         <v>98</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2856,13 +2844,13 @@
         <v>7693</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,10 +2865,10 @@
         <v>135569</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>18</v>
@@ -2892,13 +2880,13 @@
         <v>198706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>345</v>
@@ -2907,13 +2895,13 @@
         <v>334276</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2969,13 @@
         <v>838</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3017,7 +3005,7 @@
         <v>116</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +3020,10 @@
         <v>7104</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>119</v>
@@ -3050,10 +3038,10 @@
         <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -3062,13 +3050,13 @@
         <v>24788</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3071,13 @@
         <v>494524</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>639</v>
@@ -3098,13 +3086,13 @@
         <v>652403</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>1153</v>
@@ -3113,13 +3101,13 @@
         <v>1146927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3163,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3196,7 +3184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AE72F8-B84D-41FA-B4DE-7FC56223762E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B22C025-FE51-41FF-9C17-AFC0393C0033}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3213,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3326,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3335,13 +3323,13 @@
         <v>1015</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3350,13 +3338,13 @@
         <v>1015</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3386,13 +3374,13 @@
         <v>2303</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3401,13 +3389,13 @@
         <v>2303</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3413,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -3437,13 +3425,13 @@
         <v>21875</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -3452,13 +3440,13 @@
         <v>43073</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3529,13 @@
         <v>2123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3556,13 +3544,13 @@
         <v>4248</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3565,13 @@
         <v>1090</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3592,13 +3580,13 @@
         <v>2108</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3607,13 +3595,13 @@
         <v>3199</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3616,13 @@
         <v>115134</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3643,13 +3631,13 @@
         <v>137361</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -3658,7 +3646,7 @@
         <v>252495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>172</v>
@@ -3720,7 +3708,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3735,10 +3723,10 @@
         <v>174</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -3747,13 +3735,13 @@
         <v>5554</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -3762,13 +3750,13 @@
         <v>8582</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3771,13 @@
         <v>5670</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3798,13 +3786,13 @@
         <v>7676</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -3813,13 +3801,13 @@
         <v>13346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3822,13 @@
         <v>146181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>165</v>
@@ -3849,13 +3837,13 @@
         <v>178190</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -3864,13 +3852,13 @@
         <v>324370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,7 +3914,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3938,13 +3926,13 @@
         <v>1062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3953,13 +3941,13 @@
         <v>5466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3968,13 +3956,13 @@
         <v>6528</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3977,13 @@
         <v>4379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4004,13 +3992,13 @@
         <v>3207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4019,13 +4007,13 @@
         <v>7586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4028,13 @@
         <v>98158</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H18" s="7">
         <v>122</v>
@@ -4055,13 +4043,13 @@
         <v>132345</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -4070,13 +4058,13 @@
         <v>230503</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4120,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4144,13 +4132,13 @@
         <v>957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -4159,13 +4147,13 @@
         <v>6408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -4174,13 +4162,13 @@
         <v>7365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4183,13 @@
         <v>6247</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -4210,13 +4198,13 @@
         <v>5063</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -4225,13 +4213,13 @@
         <v>11310</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4234,13 @@
         <v>154409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -4261,13 +4249,13 @@
         <v>232279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>361</v>
@@ -4276,13 +4264,13 @@
         <v>386688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4338,13 @@
         <v>7172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -4365,13 +4353,13 @@
         <v>20567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -4380,13 +4368,13 @@
         <v>27738</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4389,13 @@
         <v>17386</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4416,13 +4404,13 @@
         <v>20358</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -4431,13 +4419,13 @@
         <v>37744</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4440,13 @@
         <v>535079</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H26" s="7">
         <v>657</v>
@@ -4467,13 +4455,13 @@
         <v>702050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M26" s="7">
         <v>1140</v>
@@ -4482,13 +4470,13 @@
         <v>1237129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,7 +4532,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4565,7 +4553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE00945-56B7-43ED-89DE-C031A36D32B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E75102-4995-4049-AA92-AD5051644A82}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4582,7 +4570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4695,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4710,7 +4698,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4725,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4761,7 +4749,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4776,7 +4764,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,7 +4782,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -4809,7 +4797,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -4824,7 +4812,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -4949,10 +4937,10 @@
         <v>276</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4961,7 +4949,7 @@
         <v>4339</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>279</v>
@@ -5003,7 +4991,7 @@
         <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -5012,28 +5000,28 @@
         <v>143293</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>246</v>
       </c>
       <c r="N10" s="7">
-        <v>252313</v>
+        <v>252314</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5063,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>20</v>
@@ -5089,7 +5077,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5101,13 +5089,13 @@
         <v>3624</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5116,13 +5104,13 @@
         <v>3270</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5131,13 +5119,13 @@
         <v>6894</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,7 +5173,7 @@
         <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>305</v>
@@ -5209,7 +5197,7 @@
         <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -5218,13 +5206,13 @@
         <v>213539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>346</v>
@@ -5233,13 +5221,13 @@
         <v>372368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,7 +5283,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5313,7 +5301,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5322,13 +5310,13 @@
         <v>2618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5337,13 +5325,13 @@
         <v>2618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5346,13 @@
         <v>3512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5373,13 +5361,13 @@
         <v>2309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5388,13 +5376,13 @@
         <v>5821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5397,13 @@
         <v>111523</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>114</v>
@@ -5424,13 +5412,13 @@
         <v>137669</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>224</v>
@@ -5439,13 +5427,13 @@
         <v>249192</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,7 +5489,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5528,13 +5516,13 @@
         <v>1233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5543,13 +5531,13 @@
         <v>1233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5552,13 @@
         <v>2018</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>333</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5579,13 +5567,13 @@
         <v>5108</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5594,13 +5582,13 @@
         <v>7126</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,10 +5603,10 @@
         <v>172600</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>18</v>
@@ -5630,13 +5618,13 @@
         <v>236440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>381</v>
@@ -5645,13 +5633,13 @@
         <v>409041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5707,13 @@
         <v>5468</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>174</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5734,13 +5722,13 @@
         <v>9441</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>180</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -5749,13 +5737,13 @@
         <v>14909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5758,13 @@
         <v>12200</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5785,13 +5773,13 @@
         <v>14109</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -5800,13 +5788,13 @@
         <v>26309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5809,13 @@
         <v>573660</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H26" s="7">
         <v>636</v>
@@ -5836,13 +5824,13 @@
         <v>754381</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>1243</v>
@@ -5851,13 +5839,13 @@
         <v>1328041</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,7 +5901,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5934,7 +5922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A1B3D-24F1-45A2-88C3-F989DF646843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27048586-C715-40F7-90A1-0EB0A909A27A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5951,7 +5939,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6058,13 +6046,13 @@
         <v>456</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6079,7 +6067,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6088,13 +6076,13 @@
         <v>456</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,7 +6103,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6124,13 +6112,13 @@
         <v>2759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>366</v>
+        <v>213</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6139,13 +6127,13 @@
         <v>2759</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,10 +6148,10 @@
         <v>29208</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>18</v>
@@ -6175,13 +6163,13 @@
         <v>42123</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M6" s="7">
         <v>151</v>
@@ -6190,13 +6178,13 @@
         <v>71330</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6252,13 @@
         <v>721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -6279,13 +6267,13 @@
         <v>1760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6294,10 +6282,10 @@
         <v>2481</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>25</v>
@@ -6315,13 +6303,13 @@
         <v>2188</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>383</v>
+        <v>72</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -6330,13 +6318,13 @@
         <v>5479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>174</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -6345,13 +6333,13 @@
         <v>7667</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>73</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6354,13 @@
         <v>122068</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -6381,13 +6369,13 @@
         <v>139980</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>519</v>
@@ -6396,13 +6384,13 @@
         <v>262048</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,7 +6446,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6470,13 +6458,13 @@
         <v>1180</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -6485,13 +6473,13 @@
         <v>4149</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -6500,10 +6488,10 @@
         <v>5329</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>395</v>
@@ -6524,10 +6512,10 @@
         <v>396</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -6539,10 +6527,10 @@
         <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -6554,10 +6542,10 @@
         <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6560,13 @@
         <v>169245</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>422</v>
@@ -6587,13 +6575,13 @@
         <v>228404</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -6602,13 +6590,13 @@
         <v>397649</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,7 +6652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6682,7 +6670,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6691,13 +6679,13 @@
         <v>2067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6706,7 +6694,7 @@
         <v>2067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -6727,13 +6715,13 @@
         <v>3892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -6742,13 +6730,13 @@
         <v>7216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>50</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -6757,13 +6745,13 @@
         <v>11108</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6766,13 @@
         <v>144298</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>418</v>
+        <v>59</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>419</v>
+        <v>342</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -6793,13 +6781,13 @@
         <v>271831</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M18" s="7">
         <v>463</v>
@@ -6808,13 +6796,13 @@
         <v>416130</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6858,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6882,7 +6870,7 @@
         <v>544</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
@@ -6897,13 +6885,13 @@
         <v>6686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>229</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -6912,13 +6900,13 @@
         <v>7230</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6921,13 @@
         <v>3496</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -6948,13 +6936,13 @@
         <v>10421</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>349</v>
+        <v>190</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -6963,13 +6951,13 @@
         <v>13917</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>247</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +6972,13 @@
         <v>215511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>66</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>501</v>
@@ -6999,13 +6987,13 @@
         <v>292446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>821</v>
@@ -7014,13 +7002,13 @@
         <v>507957</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,10 +7079,10 @@
         <v>274</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -7103,13 +7091,13 @@
         <v>14662</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>444</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>445</v>
+        <v>89</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -7118,13 +7106,13 @@
         <v>17564</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,10 +7130,10 @@
         <v>25</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -7154,13 +7142,13 @@
         <v>36217</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -7169,13 +7157,13 @@
         <v>49215</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7178,13 @@
         <v>680328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>1622</v>
@@ -7205,13 +7193,13 @@
         <v>974785</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>407</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>2623</v>
@@ -7220,13 +7208,13 @@
         <v>1655114</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,7 +7270,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3655D39A-3F03-4EDF-AE2D-2BA32009BF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA80B0BE-779F-4E6E-AAFC-F5BD167BD382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0DAB56CD-C7FF-4217-B15F-058940533A68}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF1B7D62-59D6-4EFC-837B-776894184A42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="464">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -119,1291 +119,1318 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,93%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>96,62%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC758F1C-9153-4D94-8816-DA8FA8F215BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664F0988-2183-470A-B4E1-EB6335153DE2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2229,10 +2256,10 @@
         <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2274,13 @@
         <v>86011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -2262,10 +2289,10 @@
         <v>122868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>18</v>
@@ -2277,13 +2304,13 @@
         <v>208879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,7 +2366,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2357,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2366,13 +2393,13 @@
         <v>1224</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2381,13 +2408,13 @@
         <v>1224</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2429,13 @@
         <v>2795</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2417,13 +2444,13 @@
         <v>7581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2432,13 +2459,13 @@
         <v>10376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2480,13 @@
         <v>143094</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -2468,13 +2495,13 @@
         <v>173875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>305</v>
@@ -2483,13 +2510,13 @@
         <v>316968</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,7 +2572,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2563,7 +2590,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2578,7 +2605,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2593,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2635,13 @@
         <v>896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2623,13 +2650,13 @@
         <v>3220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2638,13 +2665,13 @@
         <v>4116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,10 +2686,10 @@
         <v>103475</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -2674,13 +2701,13 @@
         <v>132630</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>238</v>
@@ -2689,13 +2716,13 @@
         <v>236105</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,7 +2778,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2763,13 +2790,13 @@
         <v>838</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2778,13 +2805,13 @@
         <v>3188</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2793,13 +2820,13 @@
         <v>4026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,7 +2841,7 @@
         <v>810</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
@@ -2832,10 +2859,10 @@
         <v>98</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2844,13 +2871,13 @@
         <v>7693</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,10 +2892,10 @@
         <v>135569</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>18</v>
@@ -2880,13 +2907,13 @@
         <v>198706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>345</v>
@@ -2895,13 +2922,13 @@
         <v>334276</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2996,13 @@
         <v>838</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2984,10 +3011,10 @@
         <v>6754</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>114</v>
@@ -3005,7 +3032,7 @@
         <v>116</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3047,13 @@
         <v>7104</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3035,10 +3062,10 @@
         <v>17685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>122</v>
@@ -3184,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B22C025-FE51-41FF-9C17-AFC0393C0033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372CFA6B-1D71-48E6-8740-9767D0F3C152}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3446,7 +3473,7 @@
         <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,10 +3625,10 @@
         <v>163</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3643,13 @@
         <v>115134</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3631,13 +3658,13 @@
         <v>137361</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -3646,7 +3673,7 @@
         <v>252495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>172</v>
@@ -3708,7 +3735,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3774,10 +3801,10 @@
         <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3786,13 +3813,13 @@
         <v>7676</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -3801,13 +3828,13 @@
         <v>13346</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3849,13 @@
         <v>146181</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>165</v>
@@ -3837,13 +3864,13 @@
         <v>178190</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -3852,13 +3879,13 @@
         <v>324370</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,7 +3941,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3926,13 +3953,13 @@
         <v>1062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3941,13 +3968,13 @@
         <v>5466</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3956,13 +3983,13 @@
         <v>6528</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +4004,13 @@
         <v>4379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3992,13 +4019,13 @@
         <v>3207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4007,13 +4034,13 @@
         <v>7586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4055,13 @@
         <v>98158</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H18" s="7">
         <v>122</v>
@@ -4043,13 +4070,13 @@
         <v>132345</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -4058,13 +4085,13 @@
         <v>230503</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,7 +4147,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4132,13 +4159,13 @@
         <v>957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -4147,13 +4174,13 @@
         <v>6408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -4162,13 +4189,13 @@
         <v>7365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4210,13 @@
         <v>6247</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -4198,13 +4225,13 @@
         <v>5063</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -4213,13 +4240,13 @@
         <v>11310</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4261,13 @@
         <v>154409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -4249,13 +4276,13 @@
         <v>232279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>361</v>
@@ -4264,13 +4291,13 @@
         <v>386688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4365,13 @@
         <v>7172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -4353,13 +4380,13 @@
         <v>20567</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -4368,13 +4395,13 @@
         <v>27738</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,10 +4419,10 @@
         <v>251</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4404,13 +4431,13 @@
         <v>20358</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -4422,10 +4449,10 @@
         <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4467,13 @@
         <v>535079</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H26" s="7">
         <v>657</v>
@@ -4455,13 +4482,13 @@
         <v>702050</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M26" s="7">
         <v>1140</v>
@@ -4470,13 +4497,13 @@
         <v>1237129</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,7 +4580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E75102-4995-4049-AA92-AD5051644A82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0151A6E0-DE8D-4B6A-A8CB-6A5E5DC2D421}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4570,7 +4597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4698,7 +4725,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4713,7 +4740,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,7 +4776,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4764,7 +4791,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,7 +4824,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -4812,7 +4839,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -4883,13 +4910,13 @@
         <v>1844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4904,7 +4931,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4913,13 +4940,13 @@
         <v>4164</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,10 +4961,10 @@
         <v>4181</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>277</v>
@@ -4949,13 +4976,13 @@
         <v>4339</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -4964,13 +4991,13 @@
         <v>8520</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5012,13 @@
         <v>109021</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -5000,28 +5027,28 @@
         <v>143293</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>246</v>
       </c>
       <c r="N10" s="7">
-        <v>252314</v>
+        <v>252313</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,7 +5090,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>20</v>
@@ -5077,7 +5104,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5089,13 +5116,13 @@
         <v>3624</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5110,7 +5137,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5119,13 +5146,13 @@
         <v>6894</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5167,13 @@
         <v>2488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5155,13 +5182,13 @@
         <v>2354</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5170,13 +5197,13 @@
         <v>4842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5218,13 @@
         <v>158829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -5206,13 +5233,13 @@
         <v>213539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>346</v>
@@ -5221,13 +5248,13 @@
         <v>372368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,7 +5310,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5301,7 +5328,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5310,13 +5337,13 @@
         <v>2618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5325,13 +5352,13 @@
         <v>2618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5373,13 @@
         <v>3512</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5361,13 +5388,13 @@
         <v>2309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5376,13 +5403,13 @@
         <v>5821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5424,13 @@
         <v>111523</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H18" s="7">
         <v>114</v>
@@ -5412,13 +5439,13 @@
         <v>137669</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M18" s="7">
         <v>224</v>
@@ -5427,13 +5454,13 @@
         <v>249192</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,7 +5516,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5507,7 +5534,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5516,13 +5543,13 @@
         <v>1233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5531,13 +5558,13 @@
         <v>1233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5579,13 @@
         <v>2018</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>330</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5570,10 +5597,10 @@
         <v>123</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5582,13 +5609,13 @@
         <v>7126</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,10 +5630,10 @@
         <v>172600</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>18</v>
@@ -5618,13 +5645,13 @@
         <v>236440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M22" s="7">
         <v>381</v>
@@ -5633,13 +5660,13 @@
         <v>409041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,10 +5737,10 @@
         <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>174</v>
+        <v>342</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5722,13 +5749,13 @@
         <v>9441</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -5737,13 +5764,13 @@
         <v>14909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,10 +5785,10 @@
         <v>12200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>190</v>
+        <v>348</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>349</v>
@@ -5776,10 +5803,10 @@
         <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -5788,13 +5815,13 @@
         <v>26309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5836,13 @@
         <v>573660</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>636</v>
@@ -5824,13 +5851,13 @@
         <v>754381</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>1243</v>
@@ -5839,13 +5866,13 @@
         <v>1328041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,7 +5949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27048586-C715-40F7-90A1-0EB0A909A27A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841DB506-B7B3-4ADD-9291-2B2953E1B92A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5939,7 +5966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6046,13 +6073,13 @@
         <v>456</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6067,7 +6094,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6076,13 +6103,13 @@
         <v>456</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>362</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,7 +6130,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6112,13 +6139,13 @@
         <v>2759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>366</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>364</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6127,13 +6154,13 @@
         <v>2759</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,10 +6175,10 @@
         <v>29208</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>18</v>
@@ -6163,13 +6190,13 @@
         <v>42123</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>151</v>
@@ -6178,13 +6205,13 @@
         <v>71330</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,13 +6279,13 @@
         <v>721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -6267,13 +6294,13 @@
         <v>1760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6282,7 +6309,7 @@
         <v>2481</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>377</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>378</v>
@@ -6303,13 +6330,13 @@
         <v>2188</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -6321,7 +6348,7 @@
         <v>380</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>174</v>
+        <v>342</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>381</v>
@@ -6336,10 +6363,10 @@
         <v>382</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6381,13 @@
         <v>122068</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -6375,7 +6402,7 @@
         <v>388</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="M10" s="7">
         <v>519</v>
@@ -6384,13 +6411,13 @@
         <v>262048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,7 +6473,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6458,13 +6485,13 @@
         <v>1180</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -6473,13 +6500,13 @@
         <v>4149</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>393</v>
+        <v>98</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -6488,13 +6515,13 @@
         <v>5329</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6536,13 @@
         <v>3422</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -6524,13 +6551,13 @@
         <v>10342</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -6542,10 +6569,10 @@
         <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6587,13 @@
         <v>169245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>422</v>
@@ -6575,13 +6602,13 @@
         <v>228404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>404</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -6590,13 +6617,13 @@
         <v>397649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,7 +6679,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6670,7 +6697,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6679,13 +6706,13 @@
         <v>2067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6694,13 +6721,13 @@
         <v>2067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6742,13 @@
         <v>3892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -6730,13 +6757,13 @@
         <v>7216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>50</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -6745,13 +6772,13 @@
         <v>11108</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6793,13 @@
         <v>144298</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>414</v>
+        <v>192</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>59</v>
+        <v>421</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -6781,13 +6808,13 @@
         <v>271831</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M18" s="7">
         <v>463</v>
@@ -6796,13 +6823,13 @@
         <v>416130</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>419</v>
+        <v>213</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,7 +6885,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6870,13 +6897,13 @@
         <v>544</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -6885,13 +6912,13 @@
         <v>6686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -6900,13 +6927,13 @@
         <v>7230</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +6948,13 @@
         <v>3496</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -6936,13 +6963,13 @@
         <v>10421</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>190</v>
+        <v>342</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -6951,13 +6978,13 @@
         <v>13917</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>315</v>
+        <v>436</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,13 +6999,13 @@
         <v>215511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H22" s="7">
         <v>501</v>
@@ -6987,13 +7014,13 @@
         <v>292446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
         <v>821</v>
@@ -7002,13 +7029,13 @@
         <v>507957</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,13 +7103,13 @@
         <v>2902</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>446</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>447</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -7091,13 +7118,13 @@
         <v>14662</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -7106,13 +7133,13 @@
         <v>17564</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,10 +7157,10 @@
         <v>25</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -7142,13 +7169,13 @@
         <v>36217</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -7157,13 +7184,13 @@
         <v>49215</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,13 +7205,13 @@
         <v>680328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>1622</v>
@@ -7193,13 +7220,13 @@
         <v>974785</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>2623</v>
@@ -7208,13 +7235,13 @@
         <v>1655114</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>62</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
